--- a/data/trans_orig/P1001-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12265</v>
+        <v>12979</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30715</v>
+        <v>31727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04332284330102407</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02588677354933255</v>
+        <v>0.02739384503799939</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06483020390667717</v>
+        <v>0.0669665700935364</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -765,19 +765,19 @@
         <v>20852</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12995</v>
+        <v>13227</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30548</v>
+        <v>30691</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06799270600134678</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04237177261138335</v>
+        <v>0.04312904705014257</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09960833697463362</v>
+        <v>0.1000758579805607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -786,19 +786,19 @@
         <v>41377</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28981</v>
+        <v>30746</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54449</v>
+        <v>54419</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05301686193447151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03713303328816155</v>
+        <v>0.03939510796737081</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06976495005759294</v>
+        <v>0.06972726838985774</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>453251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443061</v>
+        <v>442049</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>461511</v>
+        <v>460797</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9566771566989759</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9351697960933228</v>
+        <v>0.9330334299064637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9741132264506677</v>
+        <v>0.9726061549620006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>277</v>
@@ -836,19 +836,19 @@
         <v>285828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276132</v>
+        <v>275989</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>293685</v>
+        <v>293453</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9320072939986532</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9003916630253664</v>
+        <v>0.8999241420194394</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9576282273886167</v>
+        <v>0.9568709529498576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>712</v>
@@ -857,19 +857,19 @@
         <v>739080</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>726008</v>
+        <v>726038</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>751476</v>
+        <v>749711</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9469831380655285</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.930235049942407</v>
+        <v>0.9302727316101421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9628669667118385</v>
+        <v>0.9606048920326292</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15665</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9306</v>
+        <v>9073</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26775</v>
+        <v>26872</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04269153608956043</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02536045825732398</v>
+        <v>0.02472690365674791</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07297075905624723</v>
+        <v>0.07323273255257447</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -982,19 +982,19 @@
         <v>31506</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22206</v>
+        <v>22125</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43320</v>
+        <v>43363</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08472311798697178</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0597153764008196</v>
+        <v>0.05949856809550684</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1164939698771747</v>
+        <v>0.1166094535900136</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -1003,19 +1003,19 @@
         <v>47171</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34609</v>
+        <v>34684</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61732</v>
+        <v>61563</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06384758588951618</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04684478553900915</v>
+        <v>0.04694631790316444</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08355743737241965</v>
+        <v>0.08332909095383512</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>351269</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>340159</v>
+        <v>340062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>357628</v>
+        <v>357861</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9573084639104396</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9270292409437527</v>
+        <v>0.9267672674474257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.974639541742676</v>
+        <v>0.9752730963432522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>333</v>
@@ -1053,19 +1053,19 @@
         <v>340359</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328545</v>
+        <v>328502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>349659</v>
+        <v>349740</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9152768820130283</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8835060301228254</v>
+        <v>0.883390546409987</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9402846235991804</v>
+        <v>0.9405014319044932</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>669</v>
@@ -1074,19 +1074,19 @@
         <v>691628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>677067</v>
+        <v>677236</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>704190</v>
+        <v>704115</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9361524141104838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9164425626275805</v>
+        <v>0.9166709090461652</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9531552144609909</v>
+        <v>0.9530536820968365</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>33681</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23883</v>
+        <v>24523</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45517</v>
+        <v>45462</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06209841423162848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04403258338863403</v>
+        <v>0.04521379549111899</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08391966910185331</v>
+        <v>0.0838181670906613</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1199,19 +1199,19 @@
         <v>18621</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10721</v>
+        <v>11181</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28006</v>
+        <v>28901</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1109840100017575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06390004479747358</v>
+        <v>0.0666406415720653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1669214075890545</v>
+        <v>0.1722536868873351</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -1220,19 +1220,19 @@
         <v>52303</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39753</v>
+        <v>39498</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67610</v>
+        <v>67366</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07364791215623444</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05597618546390533</v>
+        <v>0.05561761796873868</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09520275702042048</v>
+        <v>0.09485850496377073</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>508708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>496872</v>
+        <v>496927</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>518506</v>
+        <v>517866</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9379015857683715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9160803308981466</v>
+        <v>0.9161818329093387</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.955967416611366</v>
+        <v>0.954786204508881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -1270,19 +1270,19 @@
         <v>149161</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>139776</v>
+        <v>138881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157061</v>
+        <v>156601</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8890159899982425</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8330785924109455</v>
+        <v>0.8277463131126649</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9360999552025264</v>
+        <v>0.9333593584279348</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>643</v>
@@ -1291,19 +1291,19 @@
         <v>657868</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>642561</v>
+        <v>642805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>670418</v>
+        <v>670673</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9263520878437655</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9047972429795795</v>
+        <v>0.9051414950362294</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9440238145360947</v>
+        <v>0.9443823820312613</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>95241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77889</v>
+        <v>76927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114173</v>
+        <v>115282</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07691051853939924</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06289788479596614</v>
+        <v>0.06212148721569791</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09219871518005221</v>
+        <v>0.09309426057362467</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -1416,19 +1416,19 @@
         <v>69261</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55454</v>
+        <v>53892</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84595</v>
+        <v>85692</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09696593781850028</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07763517334800574</v>
+        <v>0.07544948212305655</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1184334249297821</v>
+        <v>0.1199694588545172</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -1437,19 +1437,19 @@
         <v>164502</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141113</v>
+        <v>141858</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>191305</v>
+        <v>190895</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08424696585535515</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07226849119725713</v>
+        <v>0.07265012334734923</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09797362070456235</v>
+        <v>0.09776338303349497</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1143093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1124161</v>
+        <v>1123052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1160445</v>
+        <v>1161407</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9230894814606008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9078012848199478</v>
+        <v>0.9069057394263753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9371021152040339</v>
+        <v>0.937878512784302</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>625</v>
@@ -1487,19 +1487,19 @@
         <v>645024</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>629690</v>
+        <v>628593</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>658831</v>
+        <v>660393</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9030340621814997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8815665750702181</v>
+        <v>0.880030541145483</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9223648266519944</v>
+        <v>0.9245505178769435</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1754</v>
@@ -1508,19 +1508,19 @@
         <v>1788118</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1761315</v>
+        <v>1761725</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1811507</v>
+        <v>1810762</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9157530341446448</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9020263792954377</v>
+        <v>0.902236616966505</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9277315088027429</v>
+        <v>0.927349876652651</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>22023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13618</v>
+        <v>14763</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33912</v>
+        <v>33933</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06282277813279652</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03884561767474379</v>
+        <v>0.04211250864251505</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09673781586774538</v>
+        <v>0.09679746705576479</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1633,19 +1633,19 @@
         <v>55800</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42413</v>
+        <v>42728</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72398</v>
+        <v>71794</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09811016360200163</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07457158050879964</v>
+        <v>0.07512651754108687</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1272930366462876</v>
+        <v>0.1262310824252039</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -1654,19 +1654,19 @@
         <v>77823</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60719</v>
+        <v>61342</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96457</v>
+        <v>96091</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08465418269254261</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06604854309311207</v>
+        <v>0.06672671092559401</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1049234622167615</v>
+        <v>0.1045257690173492</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>328532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>316643</v>
+        <v>316622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>336937</v>
+        <v>335792</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9371772218672035</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9032621841322547</v>
+        <v>0.9032025329442352</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9611543823252562</v>
+        <v>0.957887491357485</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>487</v>
@@ -1704,19 +1704,19 @@
         <v>512952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>496354</v>
+        <v>496958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>526339</v>
+        <v>526024</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9018898363979984</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8727069633537125</v>
+        <v>0.8737689175747962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9254284194912004</v>
+        <v>0.9248734824589132</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>806</v>
@@ -1725,19 +1725,19 @@
         <v>841484</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>822850</v>
+        <v>823216</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>858588</v>
+        <v>857965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9153458173074573</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8950765377832384</v>
+        <v>0.8954742309826507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9339514569068879</v>
+        <v>0.9332732890744058</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>11103</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5702</v>
+        <v>6547</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19846</v>
+        <v>19592</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03723283473831027</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01912274030811448</v>
+        <v>0.02195338481101724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0665507579369438</v>
+        <v>0.06569985890065025</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -1850,19 +1850,19 @@
         <v>121161</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>102070</v>
+        <v>101217</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>142816</v>
+        <v>143521</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09702543114917166</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0817368627183932</v>
+        <v>0.08105369868089358</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1143659599518623</v>
+        <v>0.1149309361689684</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>128</v>
@@ -1871,19 +1871,19 @@
         <v>132264</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>111234</v>
+        <v>110965</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156401</v>
+        <v>156995</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08549948301623839</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07190501985918658</v>
+        <v>0.07173096130924166</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1011019207076799</v>
+        <v>0.1014860374681068</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>287098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>278355</v>
+        <v>278609</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>292499</v>
+        <v>291654</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9627671652616897</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9334492420630566</v>
+        <v>0.9343001410993498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9808772596918856</v>
+        <v>0.9780466151889828</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1121</v>
@@ -1921,19 +1921,19 @@
         <v>1127599</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1105944</v>
+        <v>1105239</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1146690</v>
+        <v>1147543</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9029745688508284</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8856340400481377</v>
+        <v>0.8850690638310316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9182631372816068</v>
+        <v>0.9189463013191065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1416</v>
@@ -1942,19 +1942,19 @@
         <v>1414696</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1390559</v>
+        <v>1389965</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1435726</v>
+        <v>1435995</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9145005169837616</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.89889807929232</v>
+        <v>0.8985139625318934</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9280949801408134</v>
+        <v>0.9282690386907585</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>198238</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>171494</v>
+        <v>171531</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>228074</v>
+        <v>229076</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06061986736585007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05244156595911703</v>
+        <v>0.05245289545529467</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06974344506256443</v>
+        <v>0.07004966483613788</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>307</v>
@@ -2067,19 +2067,19 @@
         <v>317202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>284127</v>
+        <v>284637</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>352952</v>
+        <v>357134</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09389880882269758</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08410780090400743</v>
+        <v>0.08425900680024692</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1044815273425418</v>
+        <v>0.1057196540677781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>503</v>
@@ -2088,19 +2088,19 @@
         <v>515440</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>475310</v>
+        <v>470261</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>562942</v>
+        <v>557700</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07752947650715024</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07149329982391997</v>
+        <v>0.07073386650366041</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08467435346986146</v>
+        <v>0.08388588556966836</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3071952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3042116</v>
+        <v>3041114</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3098696</v>
+        <v>3098659</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9393801326341499</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9302565549374355</v>
+        <v>0.9299503351638622</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9475584340408834</v>
+        <v>0.9475471045447057</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2989</v>
@@ -2138,19 +2138,19 @@
         <v>3060922</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3025172</v>
+        <v>3020990</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3093997</v>
+        <v>3093487</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9061011911773024</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8955184726574583</v>
+        <v>0.8942803459322219</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9158921990959926</v>
+        <v>0.9157409931997531</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6000</v>
@@ -2159,19 +2159,19 @@
         <v>6132874</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6085372</v>
+        <v>6090614</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6173004</v>
+        <v>6178053</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9224705234928497</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9153256465301386</v>
+        <v>0.9161141144303316</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9285067001760802</v>
+        <v>0.9292661334963397</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>18972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11738</v>
+        <v>11229</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29671</v>
+        <v>29427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04348755175589522</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02690575403279728</v>
+        <v>0.02573824558251665</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0680107745201812</v>
+        <v>0.06745160455081831</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2526,19 +2526,19 @@
         <v>23183</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14445</v>
+        <v>14534</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33995</v>
+        <v>34190</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07372354185873506</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04593618939031869</v>
+        <v>0.04622084961438053</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1081084399385478</v>
+        <v>0.1087281489845277</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -2547,19 +2547,19 @@
         <v>42155</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30163</v>
+        <v>29625</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57064</v>
+        <v>56561</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05615237238060811</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0401784131330082</v>
+        <v>0.03946117983571577</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07601147182939451</v>
+        <v>0.07534192380324489</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>417302</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406603</v>
+        <v>406847</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424536</v>
+        <v>425045</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9565124482441048</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9319892254798188</v>
+        <v>0.9325483954491818</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9730942459672024</v>
+        <v>0.9742617544174833</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>262</v>
@@ -2597,19 +2597,19 @@
         <v>291271</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>280459</v>
+        <v>280264</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>300009</v>
+        <v>299920</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9262764581412649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8918915600614522</v>
+        <v>0.8912718510154726</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9540638106096814</v>
+        <v>0.9537791503856194</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>648</v>
@@ -2618,19 +2618,19 @@
         <v>708573</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>693664</v>
+        <v>694167</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>720565</v>
+        <v>721103</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9438476276193919</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9239885281706055</v>
+        <v>0.9246580761967551</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9598215868669918</v>
+        <v>0.9605388201642843</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>26326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16737</v>
+        <v>16828</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38988</v>
+        <v>39756</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06286000137707282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03996373600209493</v>
+        <v>0.0401806013994911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09309511845099457</v>
+        <v>0.09493004434453732</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -2743,19 +2743,19 @@
         <v>30207</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19615</v>
+        <v>19260</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41413</v>
+        <v>42987</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08936802319788074</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05803069888203136</v>
+        <v>0.05698032420691605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1225200328507481</v>
+        <v>0.1271752777862094</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -2764,19 +2764,19 @@
         <v>56533</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41942</v>
+        <v>41482</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74017</v>
+        <v>73041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0746992061809285</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05541976790779884</v>
+        <v>0.05481240559114185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09780138400693711</v>
+        <v>0.09651188047098094</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>392471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>379809</v>
+        <v>379041</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>402060</v>
+        <v>401969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9371399986229272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9069048815490056</v>
+        <v>0.9050699556554626</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9600362639979052</v>
+        <v>0.9598193986005088</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>278</v>
@@ -2814,19 +2814,19 @@
         <v>307804</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296598</v>
+        <v>295024</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>318396</v>
+        <v>318751</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9106319768021193</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8774799671492519</v>
+        <v>0.8728247222137905</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9419693011179683</v>
+        <v>0.943019675793084</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>631</v>
@@ -2835,19 +2835,19 @@
         <v>700275</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>682791</v>
+        <v>683767</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>714866</v>
+        <v>715326</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9253007938190715</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9021986159930626</v>
+        <v>0.9034881195290189</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9445802320922011</v>
+        <v>0.9451875944088579</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>53499</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40169</v>
+        <v>39989</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71073</v>
+        <v>70429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08499844394137797</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06381933816220763</v>
+        <v>0.06353393422177053</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1129187185091319</v>
+        <v>0.1118965074532019</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -2960,19 +2960,19 @@
         <v>46439</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34939</v>
+        <v>34883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60251</v>
+        <v>59913</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1785220450656259</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1343146330251967</v>
+        <v>0.1340988000510447</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2316199329110487</v>
+        <v>0.2303221960832619</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -2981,19 +2981,19 @@
         <v>99938</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82258</v>
+        <v>81731</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121879</v>
+        <v>121977</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1123475511493484</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09247220929112093</v>
+        <v>0.09187968468824345</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1370129633374282</v>
+        <v>0.1371229152698518</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>575916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>558342</v>
+        <v>558986</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>589246</v>
+        <v>589426</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.915001556058622</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8870812814908678</v>
+        <v>0.8881034925467984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9361806618377916</v>
+        <v>0.9364660657782296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>201</v>
@@ -3031,19 +3031,19 @@
         <v>213690</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199878</v>
+        <v>200216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>225190</v>
+        <v>225246</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8214779549343741</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7683800670889512</v>
+        <v>0.769677803916739</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8656853669748032</v>
+        <v>0.8659011999489553</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>745</v>
@@ -3052,19 +3052,19 @@
         <v>789606</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>767665</v>
+        <v>767567</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>807286</v>
+        <v>807813</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8876524488506516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8629870366625718</v>
+        <v>0.8628770847301479</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9075277907088788</v>
+        <v>0.9081203153117565</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>103402</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>82987</v>
+        <v>85443</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124091</v>
+        <v>125090</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08921629689166831</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07160171951639607</v>
+        <v>0.07372107052041187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1070660569731603</v>
+        <v>0.107928325194932</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -3177,19 +3177,19 @@
         <v>94926</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>77981</v>
+        <v>78120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>115856</v>
+        <v>116196</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1238183847011437</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1017149942631084</v>
+        <v>0.1018967576926169</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1511178508387431</v>
+        <v>0.1515613903517479</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>183</v>
@@ -3198,19 +3198,19 @@
         <v>198329</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>173464</v>
+        <v>172893</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>226331</v>
+        <v>225664</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1029922780885947</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09008013522685157</v>
+        <v>0.08978319269984333</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.117533641755103</v>
+        <v>0.1171875762213479</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1055607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1034918</v>
+        <v>1033919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1076022</v>
+        <v>1073566</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9107837031083317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8929339430268397</v>
+        <v>0.8920716748050679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9283982804836038</v>
+        <v>0.926278929479588</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>625</v>
@@ -3248,19 +3248,19 @@
         <v>671731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>650801</v>
+        <v>650461</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>688676</v>
+        <v>688537</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8761816152988563</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8488821491612568</v>
+        <v>0.848438609648252</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8982850057368916</v>
+        <v>0.8981032423073829</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1611</v>
@@ -3269,19 +3269,19 @@
         <v>1727338</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1699336</v>
+        <v>1700003</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1752203</v>
+        <v>1752774</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8970077219114053</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8824663582448971</v>
+        <v>0.8828124237786522</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9099198647731485</v>
+        <v>0.9102168073001566</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>28703</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19161</v>
+        <v>20202</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41413</v>
+        <v>39891</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05633037746247329</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03760346084488643</v>
+        <v>0.03964767270704346</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08127504478453687</v>
+        <v>0.07828721676408948</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -3394,19 +3394,19 @@
         <v>152002</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>129181</v>
+        <v>130765</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>174401</v>
+        <v>175204</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2001290921735111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1700817272343804</v>
+        <v>0.1721673546321795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2296195186273887</v>
+        <v>0.2306760512449557</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>169</v>
@@ -3415,19 +3415,19 @@
         <v>180705</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>154815</v>
+        <v>156383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>205817</v>
+        <v>206718</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1423924085223595</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1219914753934219</v>
+        <v>0.1232271963363038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1621804687039074</v>
+        <v>0.162890082318369</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>480839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>468129</v>
+        <v>469651</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>490381</v>
+        <v>489340</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9436696225375267</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.918724955215463</v>
+        <v>0.9217127832359105</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9623965391551136</v>
+        <v>0.9603523272929566</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>559</v>
@@ -3465,19 +3465,19 @@
         <v>607520</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>585121</v>
+        <v>584318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>630341</v>
+        <v>628757</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7998709078264888</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7703804813726113</v>
+        <v>0.7693239487550443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8299182727656196</v>
+        <v>0.8278326453678205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1018</v>
@@ -3486,19 +3486,19 @@
         <v>1088359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1063247</v>
+        <v>1062346</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1114249</v>
+        <v>1112681</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8576075914776404</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8378195312960924</v>
+        <v>0.8371099176816308</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.878008524606578</v>
+        <v>0.8767728036636959</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>9750</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4964</v>
+        <v>4847</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18492</v>
+        <v>19074</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03653174553851154</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01859935292027664</v>
+        <v>0.01816243787219719</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0692892578018285</v>
+        <v>0.07146967758019523</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>163</v>
@@ -3611,19 +3611,19 @@
         <v>173017</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>149917</v>
+        <v>149685</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>198498</v>
+        <v>199907</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1559619959039649</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.135139287220519</v>
+        <v>0.1349304695442093</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1789320447231813</v>
+        <v>0.1802014880048384</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -3632,19 +3632,19 @@
         <v>182766</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>156353</v>
+        <v>158332</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>210022</v>
+        <v>208908</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.132801839846495</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1136096497991674</v>
+        <v>0.1150473015647925</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.152606183861535</v>
+        <v>0.1517970904764628</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>257132</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248390</v>
+        <v>247808</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261918</v>
+        <v>262035</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9634682544614884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9307107421981722</v>
+        <v>0.9285303224198048</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9814006470797234</v>
+        <v>0.981837562127803</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>881</v>
@@ -3682,19 +3682,19 @@
         <v>936334</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>910853</v>
+        <v>909444</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>959434</v>
+        <v>959666</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.844038004096035</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8210679552768188</v>
+        <v>0.8197985119951616</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8648607127794811</v>
+        <v>0.8650695304557907</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1137</v>
@@ -3703,19 +3703,19 @@
         <v>1193467</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1166211</v>
+        <v>1167325</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1219880</v>
+        <v>1217901</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.867198160153505</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.847393816138465</v>
+        <v>0.8482029095235362</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8863903502008327</v>
+        <v>0.8849526984352074</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>240652</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>209680</v>
+        <v>209493</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>271768</v>
+        <v>271028</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07036781323465797</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06131133733333113</v>
+        <v>0.06125685962407446</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07946607559341827</v>
+        <v>0.07924983877872686</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>482</v>
@@ -3828,19 +3828,19 @@
         <v>519774</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>476686</v>
+        <v>478512</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>561771</v>
+        <v>565190</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1464926393767685</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.134348636243621</v>
+        <v>0.1348633748039292</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1583290144953065</v>
+        <v>0.159292593406925</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>701</v>
@@ -3849,19 +3849,19 @@
         <v>760426</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>701779</v>
+        <v>708098</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>812618</v>
+        <v>815967</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.109130542244446</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1007139432163592</v>
+        <v>0.1016207263758948</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.116620644911674</v>
+        <v>0.1171012424794645</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3179267</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3148151</v>
+        <v>3148891</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3210239</v>
+        <v>3210426</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.929632186765342</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9205339244065818</v>
+        <v>0.9207501612212731</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9386886626666688</v>
+        <v>0.9387431403759255</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2806</v>
@@ -3899,19 +3899,19 @@
         <v>3028351</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2986354</v>
+        <v>2982935</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3071439</v>
+        <v>3069613</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8535073606232315</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8416709855046938</v>
+        <v>0.8407074065930751</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.865651363756379</v>
+        <v>0.8651366251960708</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5790</v>
@@ -3920,19 +3920,19 @@
         <v>6207618</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6155426</v>
+        <v>6152077</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6266265</v>
+        <v>6259946</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.890869457755554</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.883379355088326</v>
+        <v>0.8828987575205355</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8992860567836404</v>
+        <v>0.898379273624105</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>20525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12585</v>
+        <v>12477</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31342</v>
+        <v>30967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04783435205111058</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02933029563416285</v>
+        <v>0.02907698528539017</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07304342140752196</v>
+        <v>0.07216931006931704</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -4287,19 +4287,19 @@
         <v>23759</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15089</v>
+        <v>15800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34158</v>
+        <v>34459</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06845910238972219</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0434779401819456</v>
+        <v>0.04552484499885275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09842208043555618</v>
+        <v>0.0992906707924346</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -4308,19 +4308,19 @@
         <v>44284</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32939</v>
+        <v>32904</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59894</v>
+        <v>59988</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05705673075864661</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04243910096728511</v>
+        <v>0.04239440548987035</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07716840901607776</v>
+        <v>0.0772890663218118</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>408567</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>397750</v>
+        <v>398125</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>416507</v>
+        <v>416615</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9521656479488895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.926956578592478</v>
+        <v>0.9278306899306831</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9706697043658371</v>
+        <v>0.9709230147146101</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>309</v>
@@ -4358,19 +4358,19 @@
         <v>323296</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>312897</v>
+        <v>312596</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>331966</v>
+        <v>331255</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9315408976102778</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9015779195644438</v>
+        <v>0.9007093292075652</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9565220598180542</v>
+        <v>0.9544751550011472</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>686</v>
@@ -4379,19 +4379,19 @@
         <v>731863</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>716253</v>
+        <v>716159</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>743208</v>
+        <v>743243</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9429432692413534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9228315909839225</v>
+        <v>0.9227109336781882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9575608990327149</v>
+        <v>0.9576055945101297</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>19277</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11976</v>
+        <v>12092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29966</v>
+        <v>30616</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05110263442821937</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03174723536309573</v>
+        <v>0.0320546823306749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07943714402010767</v>
+        <v>0.08116197208892591</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -4504,19 +4504,19 @@
         <v>23664</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14884</v>
+        <v>14684</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36718</v>
+        <v>34522</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06356710092062658</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03998244271870094</v>
+        <v>0.03944427881223433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09863093864008267</v>
+        <v>0.09273317872388161</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -4525,19 +4525,19 @@
         <v>42942</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29942</v>
+        <v>31383</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57418</v>
+        <v>58544</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05729367652231267</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03994905985362534</v>
+        <v>0.0418717059168668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07660801039513419</v>
+        <v>0.07811076387560061</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>357950</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>347261</v>
+        <v>346611</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>365251</v>
+        <v>365135</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9488973655717806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9205628559798921</v>
+        <v>0.9188380279110738</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9682527646369042</v>
+        <v>0.9679453176693249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>332</v>
@@ -4575,19 +4575,19 @@
         <v>348609</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>335555</v>
+        <v>337751</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>357389</v>
+        <v>357589</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9364328990793734</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9013690613599175</v>
+        <v>0.9072668212761182</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9600175572812991</v>
+        <v>0.9605557211877656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>668</v>
@@ -4596,19 +4596,19 @@
         <v>706558</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>692082</v>
+        <v>690956</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>719558</v>
+        <v>718117</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9427063234776873</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9233919896048659</v>
+        <v>0.9218892361243995</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9600509401463747</v>
+        <v>0.9581282940831333</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>36015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25633</v>
+        <v>24808</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49728</v>
+        <v>50423</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06900469308943243</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04911319733824869</v>
+        <v>0.04753280911339743</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09528052495892889</v>
+        <v>0.09661092155616692</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4721,19 +4721,19 @@
         <v>22912</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14202</v>
+        <v>14500</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34335</v>
+        <v>34470</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1379206519085684</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08549203797652075</v>
+        <v>0.08728420055440357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2066829444080704</v>
+        <v>0.2074955613735995</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -4742,19 +4742,19 @@
         <v>58926</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45396</v>
+        <v>45185</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74716</v>
+        <v>75737</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08564409000207708</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06597982742246659</v>
+        <v>0.06567280182690734</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1085928606720878</v>
+        <v>0.1100776117705332</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>485899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>472186</v>
+        <v>471491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>496281</v>
+        <v>497106</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9309953069105675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9047194750410713</v>
+        <v>0.9033890784438336</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9508868026617514</v>
+        <v>0.9524671908866026</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -4792,19 +4792,19 @@
         <v>143211</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131788</v>
+        <v>131653</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151921</v>
+        <v>151623</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8620793480914316</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7933170555919296</v>
+        <v>0.7925044386264016</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9145079620234793</v>
+        <v>0.9127157994455964</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>603</v>
@@ -4813,19 +4813,19 @@
         <v>629110</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>613320</v>
+        <v>612299</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>642640</v>
+        <v>642851</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9143559099979229</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8914071393279122</v>
+        <v>0.8899223882294665</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9340201725775334</v>
+        <v>0.9343271981730926</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>67176</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54057</v>
+        <v>51904</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83729</v>
+        <v>84419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05843243815177784</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04702082345816921</v>
+        <v>0.04514794730340609</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07283045735053277</v>
+        <v>0.07343079245161102</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -4938,19 +4938,19 @@
         <v>97577</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78004</v>
+        <v>78247</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116260</v>
+        <v>118103</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1181498024047801</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09445041849802152</v>
+        <v>0.0947440457715332</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.140771603879119</v>
+        <v>0.1430027081953977</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>153</v>
@@ -4959,19 +4959,19 @@
         <v>164753</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139656</v>
+        <v>140614</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192488</v>
+        <v>191576</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08339764909895975</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07069350115267826</v>
+        <v>0.07117865316094697</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09743668687667757</v>
+        <v>0.09697501802448229</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1082462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1065909</v>
+        <v>1065219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1095581</v>
+        <v>1097734</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9415675618482221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9271695426494674</v>
+        <v>0.9265692075483887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.952979176541831</v>
+        <v>0.9548520526965938</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>709</v>
@@ -5009,19 +5009,19 @@
         <v>728299</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>709616</v>
+        <v>707773</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>747872</v>
+        <v>747629</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8818501975952199</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8592283961208811</v>
+        <v>0.856997291804602</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9055495815019784</v>
+        <v>0.9052559542284667</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1748</v>
@@ -5030,19 +5030,19 @@
         <v>1810761</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1783026</v>
+        <v>1783938</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1835858</v>
+        <v>1834900</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9166023509010403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9025633131233232</v>
+        <v>0.9030249819755179</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9293064988473217</v>
+        <v>0.928821346839053</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>52224</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39499</v>
+        <v>39547</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68610</v>
+        <v>67212</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08413578578630601</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06363566803546535</v>
+        <v>0.0637128083578008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1105352763717592</v>
+        <v>0.1082825376533545</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -5155,19 +5155,19 @@
         <v>123278</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101977</v>
+        <v>103779</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145175</v>
+        <v>142478</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1669882516646753</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1381350313735975</v>
+        <v>0.1405749184371227</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1966493567365821</v>
+        <v>0.1929953500737395</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -5176,19 +5176,19 @@
         <v>175502</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>152005</v>
+        <v>150560</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>202888</v>
+        <v>203951</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1291450547739633</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1118550296522905</v>
+        <v>0.1107913748086017</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1492974985635471</v>
+        <v>0.1500801081402259</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>568482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>552096</v>
+        <v>553494</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>581207</v>
+        <v>581159</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.915864214213694</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8894647236282408</v>
+        <v>0.8917174623466451</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9363643319645346</v>
+        <v>0.9362871916421992</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>586</v>
@@ -5226,19 +5226,19 @@
         <v>614966</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>593069</v>
+        <v>595766</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>636267</v>
+        <v>634465</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8330117483353248</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.803350643263418</v>
+        <v>0.8070046499262605</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8618649686264027</v>
+        <v>0.8594250815628773</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1132</v>
@@ -5247,19 +5247,19 @@
         <v>1183448</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1156062</v>
+        <v>1154999</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1206945</v>
+        <v>1208390</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8708549452260368</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8507025014364529</v>
+        <v>0.8499198918597742</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8881449703477095</v>
+        <v>0.8892086251913985</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>10758</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5498</v>
+        <v>5509</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18544</v>
+        <v>19742</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03746601503467883</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01914823242115243</v>
+        <v>0.01918590829433036</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06458019743650993</v>
+        <v>0.06875338853379052</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>122</v>
@@ -5372,19 +5372,19 @@
         <v>141068</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>118636</v>
+        <v>118119</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>166184</v>
+        <v>164903</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1303743925263823</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1096424033558118</v>
+        <v>0.1091650490475216</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1535860363048187</v>
+        <v>0.1524021718575731</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>132</v>
@@ -5393,19 +5393,19 @@
         <v>151827</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127997</v>
+        <v>128064</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>179960</v>
+        <v>178048</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1108894565719788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0934848736068107</v>
+        <v>0.09353432388289024</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1314372007940776</v>
+        <v>0.1300407735398268</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>276387</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268601</v>
+        <v>267403</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>281647</v>
+        <v>281636</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9625339849653212</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.93541980256349</v>
+        <v>0.9312466114662088</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9808517675788475</v>
+        <v>0.9808140917056695</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>870</v>
@@ -5443,19 +5443,19 @@
         <v>940957</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>915841</v>
+        <v>917122</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>963389</v>
+        <v>963906</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8696256074736177</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.846413963695181</v>
+        <v>0.847597828142427</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8903575966441882</v>
+        <v>0.8908349509524788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1132</v>
@@ -5464,19 +5464,19 @@
         <v>1217343</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1189210</v>
+        <v>1191122</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1241173</v>
+        <v>1241106</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8891105434280212</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8685627992059225</v>
+        <v>0.8699592264601732</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9065151263931893</v>
+        <v>0.9064656761171098</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>205975</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>180217</v>
+        <v>179213</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>235748</v>
+        <v>237602</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06083637474168126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05322844127551309</v>
+        <v>0.05293207851570944</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06963009717186357</v>
+        <v>0.07017758631587601</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>386</v>
@@ -5589,19 +5589,19 @@
         <v>432259</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>391738</v>
+        <v>393323</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>470882</v>
+        <v>469747</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1223975444023754</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1109238135836711</v>
+        <v>0.1113726615027805</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.133334009994381</v>
+        <v>0.1330125741433943</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>581</v>
@@ -5610,19 +5610,19 @@
         <v>638234</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>589143</v>
+        <v>589786</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>693207</v>
+        <v>692266</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09226606631222015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08516928950612913</v>
+        <v>0.08526226226888887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1002133227293519</v>
+        <v>0.100077258144521</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3179747</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3149974</v>
+        <v>3148120</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3205505</v>
+        <v>3206509</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9391636252583188</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9303699028281365</v>
+        <v>0.929822413684124</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9467715587244869</v>
+        <v>0.9470679214842906</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2940</v>
@@ -5660,19 +5660,19 @@
         <v>3099337</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3060714</v>
+        <v>3061849</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3139858</v>
+        <v>3138273</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8776024555976246</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8666659900056188</v>
+        <v>0.8669874258566057</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8890761864163288</v>
+        <v>0.8886273384972194</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5969</v>
@@ -5681,19 +5681,19 @@
         <v>6279084</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6224111</v>
+        <v>6225052</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6328175</v>
+        <v>6327532</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9077339336877799</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8997866772706481</v>
+        <v>0.899922741855479</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.914830710493871</v>
+        <v>0.9147377377311112</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>28784</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18329</v>
+        <v>19703</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42373</v>
+        <v>42609</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05227538376346076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03328803527187043</v>
+        <v>0.03578297563981614</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07695548642142543</v>
+        <v>0.07738364986770435</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -6048,19 +6048,19 @@
         <v>37413</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27152</v>
+        <v>27745</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49779</v>
+        <v>49561</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07660073886475366</v>
+        <v>0.07660073886475367</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05559164418019723</v>
+        <v>0.05680709004008565</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1019195980129988</v>
+        <v>0.1014734133707592</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -6069,19 +6069,19 @@
         <v>66196</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51658</v>
+        <v>53034</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83382</v>
+        <v>83942</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06370987355596296</v>
+        <v>0.06370987355596293</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04971729963403357</v>
+        <v>0.05104171607051247</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08025007409984014</v>
+        <v>0.08078862720469801</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>521834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>508245</v>
+        <v>508009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>532289</v>
+        <v>530915</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9477246162365393</v>
+        <v>0.9477246162365391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9230445135785741</v>
+        <v>0.9226163501322958</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9667119647281298</v>
+        <v>0.9642170243601841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>637</v>
@@ -6119,19 +6119,19 @@
         <v>450998</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>438632</v>
+        <v>438850</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>461259</v>
+        <v>460666</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9233992611352465</v>
+        <v>0.9233992611352463</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8980804019870016</v>
+        <v>0.8985265866292407</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.944408355819803</v>
+        <v>0.9431929099599143</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1164</v>
@@ -6140,19 +6140,19 @@
         <v>972833</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>955647</v>
+        <v>955087</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>987371</v>
+        <v>985995</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9362901264440372</v>
+        <v>0.9362901264440371</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9197499259001597</v>
+        <v>0.919211372795302</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9502827003659663</v>
+        <v>0.9489582839294876</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>13361</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7463</v>
+        <v>7634</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23827</v>
+        <v>23040</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02765021495925743</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01544519604840513</v>
+        <v>0.01579772244557471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04930944414430762</v>
+        <v>0.04768042724988406</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -6265,19 +6265,19 @@
         <v>40874</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31042</v>
+        <v>30430</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52768</v>
+        <v>52832</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09659718876970655</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07336122131859273</v>
+        <v>0.07191402580604742</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1247043627656958</v>
+        <v>0.1248567887479956</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -6286,19 +6286,19 @@
         <v>54235</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41988</v>
+        <v>43147</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68931</v>
+        <v>70565</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05983894812415949</v>
+        <v>0.05983894812415947</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04632595852946701</v>
+        <v>0.04760530566760168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07605350609427902</v>
+        <v>0.07785591615388998</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>469851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>459385</v>
+        <v>460172</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475749</v>
+        <v>475578</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9723497850407425</v>
+        <v>0.9723497850407424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9506905558556924</v>
+        <v>0.9523195727501159</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9845548039515948</v>
+        <v>0.9842022775544252</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>534</v>
@@ -6336,19 +6336,19 @@
         <v>382269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>370375</v>
+        <v>370311</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>392101</v>
+        <v>392713</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9034028112302933</v>
+        <v>0.9034028112302935</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8752956372343041</v>
+        <v>0.8751432112520043</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9266387786814069</v>
+        <v>0.9280859741939526</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1001</v>
@@ -6357,19 +6357,19 @@
         <v>852120</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>837424</v>
+        <v>835790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>864367</v>
+        <v>863208</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9401610518758405</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9239464939057211</v>
+        <v>0.92214408384611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9536740414705331</v>
+        <v>0.9523946943323983</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>35782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25025</v>
+        <v>24787</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49205</v>
+        <v>48779</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07587129278751105</v>
+        <v>0.07587129278751104</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05306223416633764</v>
+        <v>0.05255875050477449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1043330464668928</v>
+        <v>0.1034308958537739</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -6482,19 +6482,19 @@
         <v>20168</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13768</v>
+        <v>14040</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27761</v>
+        <v>28689</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1075623719749623</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07342831496782695</v>
+        <v>0.07488315942628439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.148061109981677</v>
+        <v>0.1530101629388036</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -6503,19 +6503,19 @@
         <v>55949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43815</v>
+        <v>44077</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73166</v>
+        <v>71705</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08488648041945181</v>
+        <v>0.08488648041945179</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06647645282864886</v>
+        <v>0.06687353895814939</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1110080882424295</v>
+        <v>0.108791358980557</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>435830</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>422407</v>
+        <v>422833</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>446587</v>
+        <v>446825</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9241287072124891</v>
+        <v>0.924128707212489</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8956669535331063</v>
+        <v>0.896569104146226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9469377658336623</v>
+        <v>0.9474412494952256</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -6553,19 +6553,19 @@
         <v>167329</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159736</v>
+        <v>158808</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>173729</v>
+        <v>173457</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8924376280250377</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.851938890018323</v>
+        <v>0.8469898370611965</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9265716850321731</v>
+        <v>0.9251168405737155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>708</v>
@@ -6574,19 +6574,19 @@
         <v>603160</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>585943</v>
+        <v>587404</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>615294</v>
+        <v>615032</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9151135195805483</v>
+        <v>0.9151135195805482</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8889919117575705</v>
+        <v>0.8912086410194432</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9335235471713511</v>
+        <v>0.9331264610418506</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>73683</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58845</v>
+        <v>58743</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>92494</v>
+        <v>91913</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06516920940187203</v>
+        <v>0.06516920940187204</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05204563011503924</v>
+        <v>0.05195584171537192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08180633151886785</v>
+        <v>0.08129326580221435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>110</v>
@@ -6699,19 +6699,19 @@
         <v>74662</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60925</v>
+        <v>61330</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89241</v>
+        <v>89612</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08679548512570073</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07082593375858899</v>
+        <v>0.0712969793278266</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1037447992230714</v>
+        <v>0.1041757605348786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>192</v>
@@ -6720,19 +6720,19 @@
         <v>148345</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127589</v>
+        <v>126831</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169670</v>
+        <v>169805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07451347622386525</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06408796209761496</v>
+        <v>0.06370720203655302</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0852254148513099</v>
+        <v>0.08529323585000842</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1056958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1038147</v>
+        <v>1038728</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1071796</v>
+        <v>1071898</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.934830790598128</v>
+        <v>0.9348307905981282</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9181936684811325</v>
+        <v>0.9187067341977856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9479543698849618</v>
+        <v>0.9480441582846282</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1118</v>
@@ -6770,19 +6770,19 @@
         <v>785540</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>770961</v>
+        <v>770590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>799277</v>
+        <v>798872</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9132045148742991</v>
+        <v>0.9132045148742992</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8962552007769284</v>
+        <v>0.8958242394651216</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.929174066241411</v>
+        <v>0.9287030206721735</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2152</v>
@@ -6791,19 +6791,19 @@
         <v>1842498</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1821173</v>
+        <v>1821038</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1863254</v>
+        <v>1864012</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9254865237761349</v>
+        <v>0.9254865237761347</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9147745851486901</v>
+        <v>0.9147067641499916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.935912037902385</v>
+        <v>0.936292797963447</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>42204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31510</v>
+        <v>31552</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55865</v>
+        <v>54886</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07430816992373758</v>
+        <v>0.07430816992373757</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05547890279212771</v>
+        <v>0.05555245253351909</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09836015896808256</v>
+        <v>0.09663586813887096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -6916,19 +6916,19 @@
         <v>121803</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>105644</v>
+        <v>105560</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139083</v>
+        <v>139659</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1467000848770627</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1272373733982834</v>
+        <v>0.127136935162097</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.167511906024625</v>
+        <v>0.1682048217805232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>249</v>
@@ -6937,19 +6937,19 @@
         <v>164008</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>143686</v>
+        <v>144188</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>187512</v>
+        <v>185232</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1172948233638099</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1027613415259274</v>
+        <v>0.1031201996804276</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1341048056111712</v>
+        <v>0.1324741143963395</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>525760</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>512099</v>
+        <v>513078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>536454</v>
+        <v>536412</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9256918300762627</v>
+        <v>0.9256918300762624</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9016398410319175</v>
+        <v>0.9033641318611288</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9445210972078725</v>
+        <v>0.944447547466481</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1088</v>
@@ -6987,19 +6987,19 @@
         <v>708486</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>691206</v>
+        <v>690630</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>724645</v>
+        <v>724729</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8532999151229375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8324880939753745</v>
+        <v>0.8317951782194769</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8727626266017164</v>
+        <v>0.8728630648379031</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1587</v>
@@ -7008,19 +7008,19 @@
         <v>1234244</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1210740</v>
+        <v>1213020</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1254566</v>
+        <v>1254064</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8827051766361901</v>
+        <v>0.88270517663619</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8658951943888289</v>
+        <v>0.8675258856036607</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8972386584740729</v>
+        <v>0.8968798003195726</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>10697</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4870</v>
+        <v>4810</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23651</v>
+        <v>23137</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04509256951370141</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02052695087546677</v>
+        <v>0.02027532012517796</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09969788562739453</v>
+        <v>0.09752866593753116</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>189</v>
@@ -7133,19 +7133,19 @@
         <v>125763</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>107401</v>
+        <v>108700</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>145394</v>
+        <v>144621</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1491134494101276</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1273421293248622</v>
+        <v>0.1288824407968975</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.172388719462293</v>
+        <v>0.1714722798397089</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>198</v>
@@ -7154,19 +7154,19 @@
         <v>136460</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115497</v>
+        <v>118414</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>157647</v>
+        <v>159788</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1262781047866497</v>
+        <v>0.1262781047866496</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1068788693420007</v>
+        <v>0.1095782580760553</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1458835373064074</v>
+        <v>0.1478652924316872</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>226531</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>213577</v>
+        <v>214091</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232358</v>
+        <v>232418</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9549074304862987</v>
+        <v>0.9549074304862986</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.900302114372605</v>
+        <v>0.9024713340624688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9794730491245331</v>
+        <v>0.979724679874822</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>968</v>
@@ -7204,19 +7204,19 @@
         <v>717643</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>698012</v>
+        <v>698785</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>736005</v>
+        <v>734706</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8508865505898724</v>
+        <v>0.8508865505898725</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8276112805377069</v>
+        <v>0.8285277201602911</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8726578706751379</v>
+        <v>0.8711175592031025</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1071</v>
@@ -7225,19 +7225,19 @@
         <v>944173</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>922986</v>
+        <v>920845</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>965136</v>
+        <v>962219</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8737218952133504</v>
+        <v>0.8737218952133502</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8541164626935923</v>
+        <v>0.8521347075683128</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8931211306579993</v>
+        <v>0.8904217419239445</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>204511</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>179437</v>
+        <v>179176</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>234957</v>
+        <v>235421</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05942886038372781</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05214262949536115</v>
+        <v>0.05206669002141289</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06827614947786079</v>
+        <v>0.06841090471669808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>637</v>
@@ -7350,19 +7350,19 @@
         <v>420683</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>392088</v>
+        <v>388813</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>457909</v>
+        <v>454622</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1157965829839581</v>
+        <v>0.115796582983958</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1079257375249651</v>
+        <v>0.1070241582279467</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1260432657443272</v>
+        <v>0.1251386148683983</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>854</v>
@@ -7371,19 +7371,19 @@
         <v>625194</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>582255</v>
+        <v>578396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>669620</v>
+        <v>664472</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0883763519696634</v>
+        <v>0.08837635196966341</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08230657226224915</v>
+        <v>0.0817610848009454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09465641835267602</v>
+        <v>0.09392865068167099</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3236763</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3206317</v>
+        <v>3205853</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3261837</v>
+        <v>3262098</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9405711396162723</v>
+        <v>0.9405711396162721</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9317238505221394</v>
+        <v>0.9315890952833019</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9478573705046389</v>
+        <v>0.9479333099785872</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4602</v>
@@ -7421,19 +7421,19 @@
         <v>3212264</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3175038</v>
+        <v>3178325</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3240859</v>
+        <v>3244134</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8842034170160422</v>
+        <v>0.884203417016042</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8739567342556737</v>
+        <v>0.8748613851316021</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8920742624750351</v>
+        <v>0.8929758417720534</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7683</v>
@@ -7442,19 +7442,19 @@
         <v>6449027</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6404601</v>
+        <v>6409749</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6491966</v>
+        <v>6495825</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9116236480303364</v>
+        <v>0.9116236480303366</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9053435816473236</v>
+        <v>0.9060713493183289</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9176934277377505</v>
+        <v>0.9182389151990545</v>
       </c>
     </row>
     <row r="24">
